--- a/Excel/TankCfg.xlsx
+++ b/Excel/TankCfg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E045CA9-85A3-4BFA-A418-CD5231C95547}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D6787F-3960-4044-BCF3-11AB75FF2FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="3030" windowWidth="21150" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="23040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,7 +493,7 @@
     <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
